--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,67 +64,148 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.879+/-0.003</t>
+  </si>
+  <si>
+    <t>0.824+/-0.0</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.872+/-0.003</t>
+  </si>
+  <si>
+    <t>0.821+/-0.012</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.888+/-0.005</t>
+  </si>
+  <si>
+    <t>0.828+/-0.012</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>8.777+/-0.042</t>
+  </si>
+  <si>
+    <t>0.786+/-0.003</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.796+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.012</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.769+/-0.006</t>
+  </si>
+  <si>
+    <t>0.761+/-0.012</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>1.566+/-0.014</t>
+  </si>
+  <si>
     <t>0.88+/-0.002</t>
   </si>
   <si>
-    <t>0.82+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.861+/-0.004</t>
-  </si>
-  <si>
-    <t>0.805+/-0.017</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.906+/-0.004</t>
-  </si>
-  <si>
-    <t>0.845+/-0.009</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>9.488+/-0.477</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.791+/-0.005</t>
-  </si>
-  <si>
-    <t>0.781+/-0.011</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.773+/-0.007</t>
-  </si>
-  <si>
-    <t>0.765+/-0.012</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>1.836+/-0.207</t>
-  </si>
-  <si>
-    <t>0.881+/-0.001</t>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.907+/-0.002</t>
+  </si>
+  <si>
+    <t>0.886+/-0.008</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.846+/-0.003</t>
+  </si>
+  <si>
+    <t>0.823+/-0.02</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>6.437+/-0.068</t>
+  </si>
+  <si>
+    <t>0.751+/-0.002</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.747+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.013</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.76+/-0.008</t>
+  </si>
+  <si>
+    <t>0.745+/-0.022</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.672+/-0.02</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.901+/-0.002</t>
   </si>
   <si>
     <t>0.856+/-0.0</t>
@@ -133,409 +214,358 @@
     <t>0.795</t>
   </si>
   <si>
-    <t>0.908+/-0.003</t>
-  </si>
-  <si>
-    <t>0.884+/-0.009</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.848+/-0.003</t>
-  </si>
-  <si>
-    <t>0.82+/-0.012</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>7.851+/-0.685</t>
-  </si>
-  <si>
-    <t>0.754+/-0.002</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
+    <t>0.893+/-0.003</t>
+  </si>
+  <si>
+    <t>0.847+/-0.011</t>
+  </si>
+  <si>
+    <t>0.912+/-0.003</t>
+  </si>
+  <si>
+    <t>0.868+/-0.015</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>9.513+/-0.188</t>
+  </si>
+  <si>
+    <t>0.807+/-0.004</t>
+  </si>
+  <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.812+/-0.004</t>
+  </si>
+  <si>
+    <t>0.803+/-0.011</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.799+/-0.006</t>
+  </si>
+  <si>
+    <t>0.792+/-0.019</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>1.814+/-0.025</t>
+  </si>
+  <si>
+    <t>0.898+/-0.002</t>
+  </si>
+  <si>
+    <t>0.878+/-0.0</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.893+/-0.01</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.882+/-0.003</t>
+  </si>
+  <si>
+    <t>0.86+/-0.016</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>7.66+/-0.076</t>
+  </si>
+  <si>
+    <t>0.77+/-0.002</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.78+/-0.004</t>
+  </si>
+  <si>
+    <t>0.763+/-0.016</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.754+/-0.005</t>
+  </si>
+  <si>
+    <t>0.742+/-0.019</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.705+/-0.015</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.868+/-0.001</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.904+/-0.003</t>
+  </si>
+  <si>
+    <t>0.791+/-0.02</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.824+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.023</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>7.661+/-0.137</t>
+  </si>
+  <si>
+    <t>0.722+/-0.003</t>
+  </si>
+  <si>
+    <t>0.713+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.746+/-0.005</t>
+  </si>
+  <si>
+    <t>0.736+/-0.012</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.673+/-0.005</t>
+  </si>
+  <si>
+    <t>0.665+/-0.019</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>1.565+/-0.022</t>
+  </si>
+  <si>
+    <t>0.814+/-0.003</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.895+/-0.003</t>
+  </si>
+  <si>
+    <t>0.852+/-0.014</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.712+/-0.004</t>
+  </si>
+  <si>
+    <t>0.678+/-0.019</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>6.609+/-0.061</t>
+  </si>
+  <si>
+    <t>0.682+/-0.004</t>
+  </si>
+  <si>
+    <t>0.64+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.683+/-0.004</t>
+  </si>
+  <si>
+    <t>0.64+/-0.014</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.679+/-0.01</t>
+  </si>
+  <si>
+    <t>0.639+/-0.018</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.615+/-0.016</t>
   </si>
   <si>
     <t>0.692</t>
   </si>
   <si>
-    <t>0.75+/-0.005</t>
-  </si>
-  <si>
-    <t>0.729+/-0.012</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.762+/-0.01</t>
-  </si>
-  <si>
-    <t>0.743+/-0.018</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.756+/-0.034</t>
-  </si>
-  <si>
-    <t>0.903+/-0.002</t>
-  </si>
-  <si>
-    <t>0.855+/-0.0</t>
-  </si>
-  <si>
-    <t>0.892+/-0.003</t>
-  </si>
-  <si>
-    <t>0.847+/-0.011</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.917+/-0.003</t>
-  </si>
-  <si>
-    <t>0.867+/-0.01</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>10.076+/-0.38</t>
-  </si>
-  <si>
-    <t>0.809+/-0.002</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.813+/-0.005</t>
-  </si>
-  <si>
-    <t>0.802+/-0.012</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.802+/-0.004</t>
-  </si>
-  <si>
-    <t>0.795+/-0.016</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>2.331+/-0.148</t>
-  </si>
-  <si>
-    <t>0.899+/-0.002</t>
-  </si>
-  <si>
-    <t>0.881+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.915+/-0.003</t>
-  </si>
-  <si>
-    <t>0.899+/-0.008</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.858+/-0.012</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>9.242+/-1.019</t>
-  </si>
-  <si>
-    <t>0.768+/-0.002</t>
-  </si>
-  <si>
-    <t>0.752+/-0.0</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.779+/-0.004</t>
-  </si>
-  <si>
-    <t>0.762+/-0.016</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>0.747+/-0.003</t>
-  </si>
-  <si>
-    <t>0.734+/-0.012</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.832+/-0.063</t>
-  </si>
-  <si>
-    <t>0.872+/-0.003</t>
-  </si>
-  <si>
-    <t>0.758+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.902+/-0.005</t>
-  </si>
-  <si>
-    <t>0.787+/-0.017</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.835+/-0.003</t>
-  </si>
-  <si>
-    <t>0.709+/-0.024</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>8.315+/-0.202</t>
-  </si>
-  <si>
-    <t>0.722+/-0.003</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.744+/-0.005</t>
-  </si>
-  <si>
-    <t>0.729+/-0.019</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.675+/-0.004</t>
-  </si>
-  <si>
-    <t>0.665+/-0.014</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>1.901+/-0.109</t>
-  </si>
-  <si>
-    <t>0.814+/-0.002</t>
-  </si>
-  <si>
-    <t>0.776+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.899+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.016</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.708+/-0.004</t>
-  </si>
-  <si>
-    <t>0.668+/-0.016</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>7.524+/-0.636</t>
-  </si>
-  <si>
-    <t>0.685+/-0.004</t>
-  </si>
-  <si>
-    <t>0.637+/-0.0</t>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.826+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.821+/-0.005</t>
+  </si>
+  <si>
+    <t>0.708+/-0.009</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.835+/-0.004</t>
+  </si>
+  <si>
+    <t>0.706+/-0.018</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>7.635+/-0.156</t>
+  </si>
+  <si>
+    <t>0.686+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
   </si>
   <si>
     <t>0.602</t>
   </si>
   <si>
-    <t>0.677+/-0.005</t>
-  </si>
-  <si>
-    <t>0.63+/-0.013</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.707+/-0.009</t>
-  </si>
-  <si>
-    <t>0.664+/-0.026</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.751+/-0.054</t>
-  </si>
-  <si>
-    <t>0.826+/-0.004</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.824+/-0.005</t>
-  </si>
-  <si>
-    <t>0.712+/-0.009</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.828+/-0.003</t>
-  </si>
-  <si>
-    <t>0.701+/-0.014</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>8.677+/-0.373</t>
-  </si>
-  <si>
-    <t>0.689+/-0.003</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.701+/-0.004</t>
-  </si>
-  <si>
-    <t>0.686+/-0.009</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.659+/-0.007</t>
-  </si>
-  <si>
-    <t>0.644+/-0.02</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>1.419+/-0.09</t>
-  </si>
-  <si>
-    <t>0.787+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
+    <t>0.695+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.015</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.664+/-0.005</t>
+  </si>
+  <si>
+    <t>0.652+/-0.027</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>1.263+/-0.015</t>
+  </si>
+  <si>
+    <t>0.79+/-0.003</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
   </si>
   <si>
     <t>0.663</t>
   </si>
   <si>
-    <t>0.861+/-0.006</t>
-  </si>
-  <si>
-    <t>0.802+/-0.009</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.684+/-0.004</t>
-  </si>
-  <si>
-    <t>0.641+/-0.021</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>5.609+/-0.154</t>
-  </si>
-  <si>
-    <t>0.681+/-0.005</t>
-  </si>
-  <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.676+/-0.004</t>
-  </si>
-  <si>
-    <t>0.617+/-0.011</t>
-  </si>
-  <si>
-    <t>0.696+/-0.011</t>
-  </si>
-  <si>
-    <t>0.636+/-0.026</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.816+/-0.097</t>
+    <t>0.863+/-0.006</t>
+  </si>
+  <si>
+    <t>0.802+/-0.01</t>
+  </si>
+  <si>
+    <t>0.689+/-0.004</t>
+  </si>
+  <si>
+    <t>0.641+/-0.023</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>5.178+/-0.025</t>
+  </si>
+  <si>
+    <t>0.679+/-0.005</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.663+/-0.005</t>
+  </si>
+  <si>
+    <t>0.613+/-0.009</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.727+/-0.007</t>
+  </si>
+  <si>
+    <t>0.677+/-0.026</t>
+  </si>
+  <si>
+    <t>0.575+/-0.011</t>
   </si>
 </sst>
 </file>
@@ -924,16 +954,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -941,19 +971,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -961,19 +991,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -981,19 +1011,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,19 +1031,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1021,19 +1051,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,19 +1071,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,19 +1091,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,19 +1111,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1101,19 +1131,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1151,19 +1181,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1171,19 +1201,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1191,19 +1221,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1211,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1231,19 +1261,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1251,19 +1281,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1271,19 +1301,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1291,19 +1321,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1311,19 +1341,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1331,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1381,19 +1411,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1401,19 +1431,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1421,19 +1451,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1441,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1461,19 +1491,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1481,19 +1511,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1501,19 +1531,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1524,16 +1554,16 @@
         <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1541,19 +1571,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1561,19 +1591,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1611,19 +1641,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1631,19 +1661,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1651,19 +1681,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1671,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1691,19 +1721,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1711,19 +1741,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1731,19 +1761,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1751,19 +1781,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1771,19 +1801,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1791,19 +1821,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -82,490 +82,490 @@
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.879+/-0.003</t>
-  </si>
-  <si>
-    <t>0.824+/-0.0</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.872+/-0.003</t>
-  </si>
-  <si>
-    <t>0.821+/-0.012</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.888+/-0.005</t>
-  </si>
-  <si>
-    <t>0.828+/-0.012</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>8.777+/-0.042</t>
+    <t>0.877+/-0.002</t>
+  </si>
+  <si>
+    <t>0.823+/-0.0</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.864+/-0.002</t>
+  </si>
+  <si>
+    <t>0.814+/-0.011</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.895+/-0.004</t>
+  </si>
+  <si>
+    <t>0.838+/-0.011</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>8.562+/-0.125</t>
   </si>
   <si>
     <t>0.786+/-0.003</t>
   </si>
   <si>
-    <t>0.777+/-0.0</t>
+    <t>0.779+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.796+/-0.004</t>
+  </si>
+  <si>
+    <t>0.787+/-0.013</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.77+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.014</t>
+  </si>
+  <si>
+    <t>1.501+/-0.015</t>
+  </si>
+  <si>
+    <t>0.854+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.906+/-0.002</t>
+  </si>
+  <si>
+    <t>0.881+/-0.009</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.842+/-0.005</t>
+  </si>
+  <si>
+    <t>0.819+/-0.014</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>6.221+/-0.029</t>
+  </si>
+  <si>
+    <t>0.753+/-0.003</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.743+/-0.004</t>
+  </si>
+  <si>
+    <t>0.728+/-0.016</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.774+/-0.014</t>
+  </si>
+  <si>
+    <t>0.759+/-0.016</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.635+/-0.012</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.904+/-0.002</t>
+  </si>
+  <si>
+    <t>0.855+/-0.0</t>
+  </si>
+  <si>
+    <t>0.888+/-0.004</t>
+  </si>
+  <si>
+    <t>0.842+/-0.011</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.924+/-0.003</t>
+  </si>
+  <si>
+    <t>0.876+/-0.01</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>8.979+/-0.155</t>
+  </si>
+  <si>
+    <t>0.808+/-0.002</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.813+/-0.003</t>
+  </si>
+  <si>
+    <t>0.805+/-0.009</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.801+/-0.008</t>
+  </si>
+  <si>
+    <t>0.791+/-0.017</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>1.802+/-0.016</t>
+  </si>
+  <si>
+    <t>0.899+/-0.002</t>
+  </si>
+  <si>
+    <t>0.881+/-0.0</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.913+/-0.003</t>
+  </si>
+  <si>
+    <t>0.895+/-0.007</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.883+/-0.002</t>
+  </si>
+  <si>
+    <t>0.863+/-0.012</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>7.369+/-0.061</t>
+  </si>
+  <si>
+    <t>0.766+/-0.003</t>
+  </si>
+  <si>
+    <t>0.751+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.778+/-0.005</t>
+  </si>
+  <si>
+    <t>0.76+/-0.015</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.743+/-0.007</t>
+  </si>
+  <si>
+    <t>0.733+/-0.018</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.663+/-0.005</t>
   </si>
   <si>
     <t>0.723</t>
   </si>
   <si>
-    <t>0.796+/-0.004</t>
-  </si>
-  <si>
-    <t>0.786+/-0.012</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.769+/-0.006</t>
-  </si>
-  <si>
-    <t>0.761+/-0.012</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>1.566+/-0.014</t>
-  </si>
-  <si>
-    <t>0.88+/-0.002</t>
-  </si>
-  <si>
-    <t>0.858+/-0.0</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.907+/-0.002</t>
-  </si>
-  <si>
-    <t>0.886+/-0.008</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.846+/-0.003</t>
-  </si>
-  <si>
-    <t>0.823+/-0.02</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>6.437+/-0.068</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.747+/-0.003</t>
-  </si>
-  <si>
-    <t>0.733+/-0.013</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.76+/-0.008</t>
-  </si>
-  <si>
-    <t>0.745+/-0.022</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.672+/-0.02</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.901+/-0.002</t>
-  </si>
-  <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.893+/-0.003</t>
-  </si>
-  <si>
-    <t>0.847+/-0.011</t>
-  </si>
-  <si>
-    <t>0.912+/-0.003</t>
-  </si>
-  <si>
-    <t>0.868+/-0.015</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>9.513+/-0.188</t>
-  </si>
-  <si>
-    <t>0.807+/-0.004</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.812+/-0.004</t>
-  </si>
-  <si>
-    <t>0.803+/-0.011</t>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.876+/-0.003</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.907+/-0.004</t>
+  </si>
+  <si>
+    <t>0.791+/-0.016</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.838+/-0.006</t>
+  </si>
+  <si>
+    <t>0.707+/-0.023</t>
   </si>
   <si>
     <t>0.326</t>
   </si>
   <si>
-    <t>0.799+/-0.006</t>
-  </si>
-  <si>
-    <t>0.792+/-0.019</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>1.814+/-0.025</t>
-  </si>
-  <si>
-    <t>0.898+/-0.002</t>
-  </si>
-  <si>
-    <t>0.878+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.893+/-0.01</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.882+/-0.003</t>
-  </si>
-  <si>
-    <t>0.86+/-0.016</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>7.66+/-0.076</t>
-  </si>
-  <si>
-    <t>0.77+/-0.002</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.78+/-0.004</t>
-  </si>
-  <si>
-    <t>0.763+/-0.016</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>0.754+/-0.005</t>
-  </si>
-  <si>
-    <t>0.742+/-0.019</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.705+/-0.015</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.868+/-0.001</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.904+/-0.003</t>
-  </si>
-  <si>
-    <t>0.791+/-0.02</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.824+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.023</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>7.661+/-0.137</t>
-  </si>
-  <si>
-    <t>0.722+/-0.003</t>
-  </si>
-  <si>
-    <t>0.713+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.746+/-0.005</t>
-  </si>
-  <si>
-    <t>0.736+/-0.012</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.673+/-0.005</t>
-  </si>
-  <si>
-    <t>0.665+/-0.019</t>
+    <t>7.303+/-0.031</t>
+  </si>
+  <si>
+    <t>0.715+/-0.002</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.738+/-0.004</t>
+  </si>
+  <si>
+    <t>0.726+/-0.018</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.665+/-0.003</t>
+  </si>
+  <si>
+    <t>0.653+/-0.019</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>1.503+/-0.044</t>
+  </si>
+  <si>
+    <t>0.814+/-0.002</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.896+/-0.004</t>
+  </si>
+  <si>
+    <t>0.851+/-0.016</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.71+/-0.004</t>
+  </si>
+  <si>
+    <t>0.668+/-0.01</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>6.254+/-0.039</t>
+  </si>
+  <si>
+    <t>0.685+/-0.003</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.678+/-0.004</t>
+  </si>
+  <si>
+    <t>0.633+/-0.015</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.704+/-0.007</t>
+  </si>
+  <si>
+    <t>0.66+/-0.025</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.589+/-0.008</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.839+/-0.004</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.875+/-0.004</t>
+  </si>
+  <si>
+    <t>0.752+/-0.015</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.793+/-0.006</t>
+  </si>
+  <si>
+    <t>0.669+/-0.025</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>7.044+/-0.11</t>
+  </si>
+  <si>
+    <t>0.686+/-0.002</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.704+/-0.004</t>
+  </si>
+  <si>
+    <t>0.692+/-0.008</t>
+  </si>
+  <si>
+    <t>0.641+/-0.004</t>
+  </si>
+  <si>
+    <t>0.634+/-0.027</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>1.438+/-0.01</t>
+  </si>
+  <si>
+    <t>0.794+/-0.003</t>
+  </si>
+  <si>
+    <t>0.748+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.876+/-0.005</t>
+  </si>
+  <si>
+    <t>0.817+/-0.011</t>
+  </si>
+  <si>
+    <t>0.685+/-0.005</t>
+  </si>
+  <si>
+    <t>0.638+/-0.033</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>5.8+/-0.056</t>
+  </si>
+  <si>
+    <t>0.676+/-0.004</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.665+/-0.006</t>
+  </si>
+  <si>
+    <t>0.616+/-0.012</t>
   </si>
   <si>
     <t>0.383</t>
   </si>
   <si>
-    <t>1.565+/-0.022</t>
-  </si>
-  <si>
-    <t>0.814+/-0.003</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.895+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.014</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.712+/-0.004</t>
-  </si>
-  <si>
-    <t>0.678+/-0.019</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>6.609+/-0.061</t>
-  </si>
-  <si>
-    <t>0.682+/-0.004</t>
-  </si>
-  <si>
-    <t>0.64+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.683+/-0.004</t>
-  </si>
-  <si>
-    <t>0.64+/-0.014</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.679+/-0.01</t>
-  </si>
-  <si>
-    <t>0.639+/-0.018</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.615+/-0.016</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.826+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.821+/-0.005</t>
-  </si>
-  <si>
-    <t>0.708+/-0.009</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.835+/-0.004</t>
-  </si>
-  <si>
-    <t>0.706+/-0.018</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>7.635+/-0.156</t>
-  </si>
-  <si>
-    <t>0.686+/-0.003</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.695+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.015</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.664+/-0.005</t>
-  </si>
-  <si>
-    <t>0.652+/-0.027</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>1.263+/-0.015</t>
-  </si>
-  <si>
-    <t>0.79+/-0.003</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.863+/-0.006</t>
-  </si>
-  <si>
-    <t>0.802+/-0.01</t>
-  </si>
-  <si>
-    <t>0.689+/-0.004</t>
-  </si>
-  <si>
-    <t>0.641+/-0.023</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>5.178+/-0.025</t>
-  </si>
-  <si>
-    <t>0.679+/-0.005</t>
-  </si>
-  <si>
-    <t>0.625+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.663+/-0.005</t>
-  </si>
-  <si>
-    <t>0.613+/-0.009</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.727+/-0.007</t>
-  </si>
-  <si>
-    <t>0.677+/-0.026</t>
-  </si>
-  <si>
-    <t>0.575+/-0.011</t>
+    <t>0.709+/-0.007</t>
+  </si>
+  <si>
+    <t>0.655+/-0.025</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.554+/-0.009</t>
   </si>
 </sst>
 </file>
@@ -960,10 +960,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -980,10 +980,10 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1000,10 +1000,10 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1020,10 +1020,10 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1040,10 +1040,10 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1060,10 +1060,10 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1080,10 +1080,10 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1100,10 +1100,10 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1117,13 +1117,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1137,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1184,16 +1184,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,19 +1221,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1364,16 +1364,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
@@ -1650,10 +1650,10 @@
         <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,10 +1670,10 @@
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,10 +1690,10 @@
         <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,10 +1710,10 @@
         <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,10 +1730,10 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1747,13 +1747,13 @@
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1767,13 +1767,13 @@
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1787,13 +1787,13 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
         <v>182</v>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="232">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,511 +61,658 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877+/-0.002</t>
-  </si>
-  <si>
-    <t>0.823+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.864+/-0.002</t>
-  </si>
-  <si>
-    <t>0.814+/-0.011</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.895+/-0.004</t>
-  </si>
-  <si>
-    <t>0.838+/-0.011</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>8.562+/-0.125</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.002+/-0.004</t>
+  </si>
+  <si>
+    <t>0.881+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.871+/-0.008</t>
+  </si>
+  <si>
+    <t>0.437+/-0.027</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.896+/-0.007</t>
+  </si>
+  <si>
+    <t>0.582+/-0.043</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.955+/-0.001</t>
+  </si>
+  <si>
+    <t>0.789+/-0.018</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>13.758+/-0.143</t>
   </si>
   <si>
     <t>0.786+/-0.003</t>
   </si>
   <si>
-    <t>0.779+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.796+/-0.004</t>
-  </si>
-  <si>
-    <t>0.787+/-0.013</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.77+/-0.003</t>
-  </si>
-  <si>
-    <t>0.764+/-0.014</t>
-  </si>
-  <si>
-    <t>1.501+/-0.015</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
+    <t>0.746+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.794+/-0.005</t>
+  </si>
+  <si>
+    <t>0.408+/-0.025</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.772+/-0.005</t>
+  </si>
+  <si>
+    <t>0.576+/-0.045</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.868+/-0.002</t>
+  </si>
+  <si>
+    <t>0.761+/-0.022</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>2.569+/-0.046</t>
+  </si>
+  <si>
+    <t>0.88+/-0.003</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
   </si>
   <si>
     <t>0.906+/-0.002</t>
   </si>
   <si>
-    <t>0.881+/-0.009</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.842+/-0.005</t>
+    <t>0.526+/-0.024</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.848+/-0.006</t>
+  </si>
+  <si>
+    <t>0.482+/-0.043</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.949+/-0.001</t>
+  </si>
+  <si>
+    <t>0.786+/-0.023</t>
+  </si>
+  <si>
+    <t>10.27+/-0.078</t>
+  </si>
+  <si>
+    <t>0.754+/-0.005</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.751+/-0.009</t>
+  </si>
+  <si>
+    <t>0.38+/-0.024</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.759+/-0.017</t>
+  </si>
+  <si>
+    <t>0.659+/-0.056</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.843+/-0.004</t>
+  </si>
+  <si>
+    <t>0.772+/-0.024</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>1.232+/-0.04</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.905+/-0.002</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.894+/-0.004</t>
+  </si>
+  <si>
+    <t>0.391+/-0.028</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.919+/-0.008</t>
+  </si>
+  <si>
+    <t>0.567+/-0.028</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.967+/-0.001</t>
+  </si>
+  <si>
+    <t>0.798+/-0.012</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>14.782+/-0.145</t>
+  </si>
+  <si>
+    <t>0.811+/-0.004</t>
+  </si>
+  <si>
+    <t>0.778+/-0.0</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.818+/-0.007</t>
+  </si>
+  <si>
+    <t>0.355+/-0.021</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.8+/-0.007</t>
+  </si>
+  <si>
+    <t>0.584+/-0.043</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.892+/-0.001</t>
+  </si>
+  <si>
+    <t>0.772+/-0.014</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>2.87+/-0.041</t>
+  </si>
+  <si>
+    <t>0.9+/-0.002</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.913+/-0.003</t>
+  </si>
+  <si>
+    <t>0.45+/-0.023</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.884+/-0.003</t>
+  </si>
+  <si>
+    <t>0.48+/-0.031</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.962+/-0.001</t>
+  </si>
+  <si>
+    <t>0.795+/-0.012</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>11.659+/-0.142</t>
+  </si>
+  <si>
+    <t>0.769+/-0.002</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.783+/-0.008</t>
+  </si>
+  <si>
+    <t>0.341+/-0.028</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.745+/-0.014</t>
+  </si>
+  <si>
+    <t>0.645+/-0.04</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.86+/-0.002</t>
+  </si>
+  <si>
+    <t>0.781+/-0.021</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>1.3+/-0.034</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.876+/-0.002</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.904+/-0.004</t>
+  </si>
+  <si>
+    <t>0.417+/-0.028</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.84+/-0.007</t>
+  </si>
+  <si>
+    <t>0.348+/-0.029</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.953+/-0.001</t>
+  </si>
+  <si>
+    <t>0.633+/-0.021</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>12.109+/-0.166</t>
+  </si>
+  <si>
+    <t>0.717+/-0.005</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741+/-0.006</t>
+  </si>
+  <si>
+    <t>0.401+/-0.033</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.668+/-0.009</t>
+  </si>
+  <si>
+    <t>0.421+/-0.037</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.791+/-0.003</t>
+  </si>
+  <si>
+    <t>0.627+/-0.02</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>2.526+/-0.034</t>
+  </si>
+  <si>
+    <t>0.816+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.899+/-0.006</t>
+  </si>
+  <si>
+    <t>0.461+/-0.037</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.713+/-0.006</t>
+  </si>
+  <si>
+    <t>0.263+/-0.023</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.895+/-0.002</t>
+  </si>
+  <si>
+    <t>0.631+/-0.02</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>10.045+/-0.065</t>
+  </si>
+  <si>
+    <t>0.691+/-0.003</t>
+  </si>
+  <si>
+    <t>0.605+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.684+/-0.005</t>
+  </si>
+  <si>
+    <t>0.361+/-0.021</t>
+  </si>
+  <si>
+    <t>0.71+/-0.01</t>
+  </si>
+  <si>
+    <t>0.553+/-0.036</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.765+/-0.003</t>
+  </si>
+  <si>
+    <t>0.629+/-0.021</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>1.155+/-0.037</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.823+/-0.009</t>
+  </si>
+  <si>
+    <t>0.624+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
   </si>
   <si>
     <t>0.819+/-0.014</t>
   </si>
   <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>6.221+/-0.029</t>
-  </si>
-  <si>
-    <t>0.753+/-0.003</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.743+/-0.004</t>
-  </si>
-  <si>
-    <t>0.728+/-0.016</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.774+/-0.014</t>
-  </si>
-  <si>
-    <t>0.759+/-0.016</t>
+    <t>0.398+/-0.023</t>
+  </si>
+  <si>
+    <t>0.829+/-0.009</t>
+  </si>
+  <si>
+    <t>0.427+/-0.041</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.92+/-0.005</t>
+  </si>
+  <si>
+    <t>0.613+/-0.017</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>12.179+/-0.387</t>
+  </si>
+  <si>
+    <t>0.69+/-0.004</t>
+  </si>
+  <si>
+    <t>0.62+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.702+/-0.006</t>
+  </si>
+  <si>
+    <t>0.394+/-0.017</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.66+/-0.009</t>
+  </si>
+  <si>
+    <t>0.433+/-0.038</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.758+/-0.003</t>
+  </si>
+  <si>
+    <t>0.609+/-0.015</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>2.152+/-0.057</t>
+  </si>
+  <si>
+    <t>0.788+/-0.002</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.856+/-0.007</t>
+  </si>
+  <si>
+    <t>0.44+/-0.033</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.692+/-0.006</t>
+  </si>
+  <si>
+    <t>0.294+/-0.032</t>
+  </si>
+  <si>
+    <t>0.873+/-0.002</t>
+  </si>
+  <si>
+    <t>0.618+/-0.024</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>8.269+/-0.086</t>
+  </si>
+  <si>
+    <t>0.682+/-0.005</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.668+/-0.007</t>
+  </si>
+  <si>
+    <t>0.371+/-0.015</t>
+  </si>
+  <si>
+    <t>0.725+/-0.009</t>
+  </si>
+  <si>
+    <t>0.55+/-0.028</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.758+/-0.005</t>
+  </si>
+  <si>
+    <t>0.61+/-0.013</t>
   </si>
   <si>
     <t>0.613</t>
   </si>
   <si>
-    <t>0.635+/-0.012</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.904+/-0.002</t>
-  </si>
-  <si>
-    <t>0.855+/-0.0</t>
-  </si>
-  <si>
-    <t>0.888+/-0.004</t>
-  </si>
-  <si>
-    <t>0.842+/-0.011</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.924+/-0.003</t>
-  </si>
-  <si>
-    <t>0.876+/-0.01</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>8.979+/-0.155</t>
-  </si>
-  <si>
-    <t>0.808+/-0.002</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.813+/-0.003</t>
-  </si>
-  <si>
-    <t>0.805+/-0.009</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.801+/-0.008</t>
-  </si>
-  <si>
-    <t>0.791+/-0.017</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>1.802+/-0.016</t>
-  </si>
-  <si>
-    <t>0.899+/-0.002</t>
-  </si>
-  <si>
-    <t>0.881+/-0.0</t>
-  </si>
-  <si>
-    <t>0.827</t>
-  </si>
-  <si>
-    <t>0.913+/-0.003</t>
-  </si>
-  <si>
-    <t>0.895+/-0.007</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.883+/-0.002</t>
-  </si>
-  <si>
-    <t>0.863+/-0.012</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>7.369+/-0.061</t>
-  </si>
-  <si>
-    <t>0.766+/-0.003</t>
-  </si>
-  <si>
-    <t>0.751+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.778+/-0.005</t>
-  </si>
-  <si>
-    <t>0.76+/-0.015</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.743+/-0.007</t>
-  </si>
-  <si>
-    <t>0.733+/-0.018</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.663+/-0.005</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.876+/-0.003</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.907+/-0.004</t>
-  </si>
-  <si>
-    <t>0.791+/-0.016</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.838+/-0.006</t>
-  </si>
-  <si>
-    <t>0.707+/-0.023</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>7.303+/-0.031</t>
-  </si>
-  <si>
-    <t>0.715+/-0.002</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.738+/-0.004</t>
-  </si>
-  <si>
-    <t>0.726+/-0.018</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.665+/-0.003</t>
-  </si>
-  <si>
-    <t>0.653+/-0.019</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>1.503+/-0.044</t>
-  </si>
-  <si>
-    <t>0.814+/-0.002</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.896+/-0.004</t>
-  </si>
-  <si>
-    <t>0.851+/-0.016</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.71+/-0.004</t>
-  </si>
-  <si>
-    <t>0.668+/-0.01</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>6.254+/-0.039</t>
-  </si>
-  <si>
-    <t>0.685+/-0.003</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.678+/-0.004</t>
-  </si>
-  <si>
-    <t>0.633+/-0.015</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.704+/-0.007</t>
-  </si>
-  <si>
-    <t>0.66+/-0.025</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.589+/-0.008</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.839+/-0.004</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.875+/-0.004</t>
-  </si>
-  <si>
-    <t>0.752+/-0.015</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.793+/-0.006</t>
-  </si>
-  <si>
-    <t>0.669+/-0.025</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>7.044+/-0.11</t>
-  </si>
-  <si>
-    <t>0.686+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.704+/-0.004</t>
-  </si>
-  <si>
-    <t>0.692+/-0.008</t>
-  </si>
-  <si>
-    <t>0.641+/-0.004</t>
-  </si>
-  <si>
-    <t>0.634+/-0.027</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>1.438+/-0.01</t>
-  </si>
-  <si>
-    <t>0.794+/-0.003</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.876+/-0.005</t>
-  </si>
-  <si>
-    <t>0.817+/-0.011</t>
-  </si>
-  <si>
-    <t>0.685+/-0.005</t>
-  </si>
-  <si>
-    <t>0.638+/-0.033</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>5.8+/-0.056</t>
-  </si>
-  <si>
-    <t>0.676+/-0.004</t>
-  </si>
-  <si>
-    <t>0.623+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.665+/-0.006</t>
-  </si>
-  <si>
-    <t>0.616+/-0.012</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.709+/-0.007</t>
-  </si>
-  <si>
-    <t>0.655+/-0.025</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.554+/-0.009</t>
+    <t>1.091+/-0.033</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,19 +1098,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -971,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -991,19 +1138,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1011,19 +1158,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1031,19 +1178,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1051,19 +1198,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1071,19 +1218,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1091,19 +1238,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1111,19 +1258,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1131,19 +1278,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1181,19 +1388,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1201,19 +1408,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,19 +1428,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1241,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1261,19 +1468,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1281,19 +1488,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1301,19 +1508,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1321,19 +1528,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1341,19 +1548,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1361,19 +1568,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1411,19 +1678,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1431,19 +1698,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1451,19 +1718,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1471,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1491,19 +1758,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1511,19 +1778,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1531,19 +1798,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1551,19 +1818,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1571,19 +1838,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1591,19 +1858,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1641,19 +1968,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,19 +1988,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1681,19 +2008,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,19 +2048,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,19 +2068,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,19 +2088,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,19 +2108,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,19 +2128,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
         <v>153</v>
       </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,19 +2148,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
